--- a/planets.xlsx
+++ b/planets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,237 +434,416 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Average Temperature (°C)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Average Temperature (°C)</t>
+          <t>Radius (KM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Radius (KM)</t>
+          <t>Colour</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Interesting Feature</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Interesting Feature</t>
+          <t>Discovered By</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Year Discovered</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Composition</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Mercury</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>167</v>
+      </c>
       <c r="C2" t="n">
-        <v>167</v>
-      </c>
-      <c r="D2" t="n">
         <v>2439.7</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Closest planet to the Sun</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Closest planet to the Sun</t>
+          <t>Known since ancient times</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Prehistory</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mercury: Iron, Silicon</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Venus</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>464</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6051.8</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hottest planet in the solar system</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Known since ancient times</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Prehistory</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Venus: Carbon dioxide, Nitrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6371</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Only planet known to support life</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Known since ancient times</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Prehistory</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Earth: Nitrogen, Oxygen</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3389.5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Has the tallest volcano (Olympus Mons)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Known since ancient times</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prehistory</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mars: Carbon dioxide, Nitrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Jupiter</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-110</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69911</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Largest planet in the solar system</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Known since ancient times</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Prehistory</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jupiter: Hydrogen, Helium</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Saturn</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-140</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58232</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Has the most extensive ring system</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Known since ancient times</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Prehistory</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Saturn: Hydrogen, Helium</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Uranus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-195</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25362</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cyan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rotates on its side</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>William Herschel</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1781</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Uranus: Hydrogen, Helium, Methane</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Neptune</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24622</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Strongest winds in the solar system</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Johann Galle</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1846</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Neptune: Hydrogen, Helium, Methane</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Pluto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-229</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1188.3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Brownish-Gray</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Considered a dwarf planet since 2006</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Clyde Tombaugh</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1930</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pluto: Nitrogen, Methane, Carbon Monoxide</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Venus</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>464</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6051.8</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hottest planet in the solar system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Earth</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6371</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Only planet known to support life</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mars</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3389.5</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Has the tallest volcano (Olympus Mons)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jupiter</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-110</v>
-      </c>
-      <c r="D6" t="n">
-        <v>69911</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Largest planet in the solar system</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Saturn</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-140</v>
-      </c>
-      <c r="D7" t="n">
-        <v>58232</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Has the most extensive ring system</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Uranus</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-195</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25362</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cyan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Rotates on its side</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Neptune</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-200</v>
-      </c>
-      <c r="D9" t="n">
-        <v>24622</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Strongest winds in the solar system</t>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>a</t>
         </is>
       </c>
     </row>

--- a/planets.xlsx
+++ b/planets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Colour</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -459,24 +459,9 @@
           <t>Interesting Feature</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Discovered By</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Year Discovered</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Mercury</t>
         </is>
@@ -497,24 +482,9 @@
           <t>Closest planet to the Sun</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Known since ancient times</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Prehistory</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Mercury: Iron, Silicon</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Venus</t>
         </is>
@@ -535,24 +505,9 @@
           <t>Hottest planet in the solar system</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Known since ancient times</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Prehistory</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Venus: Carbon dioxide, Nitrogen</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Earth</t>
         </is>
@@ -573,24 +528,9 @@
           <t>Only planet known to support life</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Known since ancient times</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Prehistory</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Earth: Nitrogen, Oxygen</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Mars</t>
         </is>
@@ -611,24 +551,9 @@
           <t>Has the tallest volcano (Olympus Mons)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Known since ancient times</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Prehistory</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Mars: Carbon dioxide, Nitrogen</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Jupiter</t>
         </is>
@@ -649,24 +574,9 @@
           <t>Largest planet in the solar system</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Known since ancient times</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Prehistory</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Jupiter: Hydrogen, Helium</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Saturn</t>
         </is>
@@ -687,24 +597,9 @@
           <t>Has the most extensive ring system</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Known since ancient times</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Prehistory</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Saturn: Hydrogen, Helium</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Uranus</t>
         </is>
@@ -725,22 +620,9 @@
           <t>Rotates on its side</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>William Herschel</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1781</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Uranus: Hydrogen, Helium, Methane</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Neptune</t>
         </is>
@@ -759,91 +641,6 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>Strongest winds in the solar system</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Johann Galle</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1846</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Neptune: Hydrogen, Helium, Methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Pluto</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-229</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1188.3</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Brownish-Gray</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Considered a dwarf planet since 2006</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Clyde Tombaugh</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1930</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Pluto: Nitrogen, Methane, Carbon Monoxide</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>a</t>
         </is>
       </c>
     </row>
